--- a/AutoTrader/properties.xlsx
+++ b/AutoTrader/properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\AutoTrader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\TestingProject\AutoTrader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>website</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>Coupe (10‑14)</t>
+  </si>
+  <si>
+    <t>OwnerReview</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>BMW M3 Coupe 2010‑2014</t>
   </si>
 </sst>
 </file>
@@ -124,11 +136,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,9 +468,6 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -493,6 +505,33 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
